--- a/stock_historical_data/1wk/HTMEDIA.NS.xlsx
+++ b/stock_historical_data/1wk/HTMEDIA.NS.xlsx
@@ -52460,7 +52460,9 @@
       <c r="P981" t="n">
         <v>0</v>
       </c>
-      <c r="Q981" t="inlineStr"/>
+      <c r="Q981" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/HTMEDIA.NS.xlsx
+++ b/stock_historical_data/1wk/HTMEDIA.NS.xlsx
@@ -55461,7 +55461,9 @@
       <c r="Q982" t="n">
         <v>0</v>
       </c>
-      <c r="R982" t="inlineStr"/>
+      <c r="R982" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/HTMEDIA.NS.xlsx
+++ b/stock_historical_data/1wk/HTMEDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R982"/>
+  <dimension ref="A1:R984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55465,6 +55465,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="983">
+      <c r="A983" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B983" t="n">
+        <v>26.90999984741211</v>
+      </c>
+      <c r="C983" t="n">
+        <v>28.35000038146973</v>
+      </c>
+      <c r="D983" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="E983" t="n">
+        <v>27.79999923706055</v>
+      </c>
+      <c r="F983" t="n">
+        <v>27.79999923706055</v>
+      </c>
+      <c r="G983" t="n">
+        <v>3361749</v>
+      </c>
+      <c r="H983" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I983" t="n">
+        <v>6</v>
+      </c>
+      <c r="J983" t="n">
+        <v>17</v>
+      </c>
+      <c r="K983" t="n">
+        <v>0</v>
+      </c>
+      <c r="L983" t="n">
+        <v>0</v>
+      </c>
+      <c r="M983" t="n">
+        <v>0</v>
+      </c>
+      <c r="N983" t="n">
+        <v>25</v>
+      </c>
+      <c r="O983" t="n">
+        <v>0</v>
+      </c>
+      <c r="P983" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q983" t="n">
+        <v>2</v>
+      </c>
+      <c r="R983" t="inlineStr"/>
+    </row>
+    <row r="984">
+      <c r="A984" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B984" t="n">
+        <v>27.94000053405762</v>
+      </c>
+      <c r="C984" t="n">
+        <v>28.60000038146973</v>
+      </c>
+      <c r="D984" t="n">
+        <v>26.53000068664551</v>
+      </c>
+      <c r="E984" t="n">
+        <v>26.93000030517578</v>
+      </c>
+      <c r="F984" t="n">
+        <v>26.93000030517578</v>
+      </c>
+      <c r="G984" t="n">
+        <v>2896339</v>
+      </c>
+      <c r="H984" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I984" t="n">
+        <v>6</v>
+      </c>
+      <c r="J984" t="n">
+        <v>24</v>
+      </c>
+      <c r="K984" t="n">
+        <v>0</v>
+      </c>
+      <c r="L984" t="n">
+        <v>0</v>
+      </c>
+      <c r="M984" t="n">
+        <v>0</v>
+      </c>
+      <c r="N984" t="n">
+        <v>26</v>
+      </c>
+      <c r="O984" t="n">
+        <v>0</v>
+      </c>
+      <c r="P984" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q984" t="n">
+        <v>0</v>
+      </c>
+      <c r="R984" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/HTMEDIA.NS.xlsx
+++ b/stock_historical_data/1wk/HTMEDIA.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R984"/>
+  <dimension ref="A1:R1019"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -5059,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -55397,7 +55397,7 @@
         <v>23</v>
       </c>
       <c r="O981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P981" t="n">
         <v>0</v>
@@ -55517,7 +55517,9 @@
       <c r="Q983" t="n">
         <v>2</v>
       </c>
-      <c r="R983" t="inlineStr"/>
+      <c r="R983" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="984">
       <c r="A984" s="2" t="n">
@@ -55571,7 +55573,1829 @@
       <c r="Q984" t="n">
         <v>0</v>
       </c>
-      <c r="R984" t="inlineStr"/>
+      <c r="R984" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B985" t="n">
+        <v>26.89999961853027</v>
+      </c>
+      <c r="C985" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="D985" t="n">
+        <v>26.89999961853027</v>
+      </c>
+      <c r="E985" t="n">
+        <v>27.73999977111816</v>
+      </c>
+      <c r="F985" t="inlineStr"/>
+      <c r="G985" t="n">
+        <v>3576844</v>
+      </c>
+      <c r="H985" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I985" t="n">
+        <v>7</v>
+      </c>
+      <c r="J985" t="n">
+        <v>1</v>
+      </c>
+      <c r="K985" t="n">
+        <v>0</v>
+      </c>
+      <c r="L985" t="n">
+        <v>0</v>
+      </c>
+      <c r="M985" t="n">
+        <v>0</v>
+      </c>
+      <c r="N985" t="n">
+        <v>27</v>
+      </c>
+      <c r="O985" t="n">
+        <v>0</v>
+      </c>
+      <c r="P985" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q985" t="n">
+        <v>0</v>
+      </c>
+      <c r="R985" t="inlineStr"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B986" t="n">
+        <v>27.73999977111816</v>
+      </c>
+      <c r="C986" t="n">
+        <v>28.04000091552734</v>
+      </c>
+      <c r="D986" t="n">
+        <v>26.11000061035156</v>
+      </c>
+      <c r="E986" t="n">
+        <v>26.43000030517578</v>
+      </c>
+      <c r="F986" t="inlineStr"/>
+      <c r="G986" t="n">
+        <v>2457447</v>
+      </c>
+      <c r="H986" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I986" t="n">
+        <v>7</v>
+      </c>
+      <c r="J986" t="n">
+        <v>8</v>
+      </c>
+      <c r="K986" t="n">
+        <v>0</v>
+      </c>
+      <c r="L986" t="n">
+        <v>0</v>
+      </c>
+      <c r="M986" t="n">
+        <v>0</v>
+      </c>
+      <c r="N986" t="n">
+        <v>28</v>
+      </c>
+      <c r="O986" t="n">
+        <v>0</v>
+      </c>
+      <c r="P986" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q986" t="n">
+        <v>0</v>
+      </c>
+      <c r="R986" t="inlineStr"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B987" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C987" t="n">
+        <v>29.15999984741211</v>
+      </c>
+      <c r="D987" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="E987" t="n">
+        <v>26.93000030517578</v>
+      </c>
+      <c r="F987" t="inlineStr"/>
+      <c r="G987" t="n">
+        <v>6038084</v>
+      </c>
+      <c r="H987" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I987" t="n">
+        <v>7</v>
+      </c>
+      <c r="J987" t="n">
+        <v>15</v>
+      </c>
+      <c r="K987" t="n">
+        <v>0</v>
+      </c>
+      <c r="L987" t="n">
+        <v>0</v>
+      </c>
+      <c r="M987" t="n">
+        <v>0</v>
+      </c>
+      <c r="N987" t="n">
+        <v>29</v>
+      </c>
+      <c r="O987" t="n">
+        <v>0</v>
+      </c>
+      <c r="P987" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q987" t="n">
+        <v>1</v>
+      </c>
+      <c r="R987" t="inlineStr"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B988" t="n">
+        <v>26.93000030517578</v>
+      </c>
+      <c r="C988" t="n">
+        <v>29.95000076293945</v>
+      </c>
+      <c r="D988" t="n">
+        <v>26.19000053405762</v>
+      </c>
+      <c r="E988" t="n">
+        <v>27.23999977111816</v>
+      </c>
+      <c r="F988" t="inlineStr"/>
+      <c r="G988" t="n">
+        <v>8937933</v>
+      </c>
+      <c r="H988" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I988" t="n">
+        <v>7</v>
+      </c>
+      <c r="J988" t="n">
+        <v>22</v>
+      </c>
+      <c r="K988" t="n">
+        <v>0</v>
+      </c>
+      <c r="L988" t="n">
+        <v>0</v>
+      </c>
+      <c r="M988" t="n">
+        <v>0</v>
+      </c>
+      <c r="N988" t="n">
+        <v>30</v>
+      </c>
+      <c r="O988" t="n">
+        <v>1</v>
+      </c>
+      <c r="P988" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q988" t="n">
+        <v>0</v>
+      </c>
+      <c r="R988" t="inlineStr"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B989" t="n">
+        <v>27</v>
+      </c>
+      <c r="C989" t="n">
+        <v>29.09000015258789</v>
+      </c>
+      <c r="D989" t="n">
+        <v>26.45999908447266</v>
+      </c>
+      <c r="E989" t="n">
+        <v>26.98999977111816</v>
+      </c>
+      <c r="F989" t="inlineStr"/>
+      <c r="G989" t="n">
+        <v>7119303</v>
+      </c>
+      <c r="H989" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I989" t="n">
+        <v>7</v>
+      </c>
+      <c r="J989" t="n">
+        <v>29</v>
+      </c>
+      <c r="K989" t="n">
+        <v>0</v>
+      </c>
+      <c r="L989" t="n">
+        <v>0</v>
+      </c>
+      <c r="M989" t="n">
+        <v>0</v>
+      </c>
+      <c r="N989" t="n">
+        <v>31</v>
+      </c>
+      <c r="O989" t="n">
+        <v>0</v>
+      </c>
+      <c r="P989" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q989" t="n">
+        <v>0</v>
+      </c>
+      <c r="R989" t="inlineStr"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B990" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C990" t="n">
+        <v>26.54999923706055</v>
+      </c>
+      <c r="D990" t="n">
+        <v>24.8700008392334</v>
+      </c>
+      <c r="E990" t="n">
+        <v>25.17000007629395</v>
+      </c>
+      <c r="F990" t="inlineStr"/>
+      <c r="G990" t="n">
+        <v>3053000</v>
+      </c>
+      <c r="H990" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I990" t="n">
+        <v>8</v>
+      </c>
+      <c r="J990" t="n">
+        <v>5</v>
+      </c>
+      <c r="K990" t="n">
+        <v>0</v>
+      </c>
+      <c r="L990" t="n">
+        <v>0</v>
+      </c>
+      <c r="M990" t="n">
+        <v>0</v>
+      </c>
+      <c r="N990" t="n">
+        <v>32</v>
+      </c>
+      <c r="O990" t="n">
+        <v>0</v>
+      </c>
+      <c r="P990" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q990" t="n">
+        <v>0</v>
+      </c>
+      <c r="R990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B991" t="n">
+        <v>25.20000076293945</v>
+      </c>
+      <c r="C991" t="n">
+        <v>25.34000015258789</v>
+      </c>
+      <c r="D991" t="n">
+        <v>24.10000038146973</v>
+      </c>
+      <c r="E991" t="n">
+        <v>24.86000061035156</v>
+      </c>
+      <c r="F991" t="inlineStr"/>
+      <c r="G991" t="n">
+        <v>1171507</v>
+      </c>
+      <c r="H991" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I991" t="n">
+        <v>8</v>
+      </c>
+      <c r="J991" t="n">
+        <v>12</v>
+      </c>
+      <c r="K991" t="n">
+        <v>0</v>
+      </c>
+      <c r="L991" t="n">
+        <v>0</v>
+      </c>
+      <c r="M991" t="n">
+        <v>0</v>
+      </c>
+      <c r="N991" t="n">
+        <v>33</v>
+      </c>
+      <c r="O991" t="n">
+        <v>0</v>
+      </c>
+      <c r="P991" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q991" t="n">
+        <v>0</v>
+      </c>
+      <c r="R991" t="inlineStr"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B992" t="n">
+        <v>24.79999923706055</v>
+      </c>
+      <c r="C992" t="n">
+        <v>26.45000076293945</v>
+      </c>
+      <c r="D992" t="n">
+        <v>24.6200008392334</v>
+      </c>
+      <c r="E992" t="n">
+        <v>25.89999961853027</v>
+      </c>
+      <c r="F992" t="inlineStr"/>
+      <c r="G992" t="n">
+        <v>2130738</v>
+      </c>
+      <c r="H992" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I992" t="n">
+        <v>8</v>
+      </c>
+      <c r="J992" t="n">
+        <v>19</v>
+      </c>
+      <c r="K992" t="n">
+        <v>0</v>
+      </c>
+      <c r="L992" t="n">
+        <v>0</v>
+      </c>
+      <c r="M992" t="n">
+        <v>0</v>
+      </c>
+      <c r="N992" t="n">
+        <v>34</v>
+      </c>
+      <c r="O992" t="n">
+        <v>0</v>
+      </c>
+      <c r="P992" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q992" t="n">
+        <v>0</v>
+      </c>
+      <c r="R992" t="inlineStr"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B993" t="n">
+        <v>26</v>
+      </c>
+      <c r="C993" t="n">
+        <v>26.40999984741211</v>
+      </c>
+      <c r="D993" t="n">
+        <v>24.95000076293945</v>
+      </c>
+      <c r="E993" t="n">
+        <v>25.1200008392334</v>
+      </c>
+      <c r="F993" t="inlineStr"/>
+      <c r="G993" t="n">
+        <v>1562894</v>
+      </c>
+      <c r="H993" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I993" t="n">
+        <v>8</v>
+      </c>
+      <c r="J993" t="n">
+        <v>26</v>
+      </c>
+      <c r="K993" t="n">
+        <v>0</v>
+      </c>
+      <c r="L993" t="n">
+        <v>0</v>
+      </c>
+      <c r="M993" t="n">
+        <v>0</v>
+      </c>
+      <c r="N993" t="n">
+        <v>35</v>
+      </c>
+      <c r="O993" t="n">
+        <v>0</v>
+      </c>
+      <c r="P993" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q993" t="n">
+        <v>0</v>
+      </c>
+      <c r="R993" t="inlineStr"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B994" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="C994" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D994" t="n">
+        <v>24.45000076293945</v>
+      </c>
+      <c r="E994" t="n">
+        <v>24.53000068664551</v>
+      </c>
+      <c r="F994" t="inlineStr"/>
+      <c r="G994" t="n">
+        <v>1078945</v>
+      </c>
+      <c r="H994" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I994" t="n">
+        <v>9</v>
+      </c>
+      <c r="J994" t="n">
+        <v>2</v>
+      </c>
+      <c r="K994" t="n">
+        <v>0</v>
+      </c>
+      <c r="L994" t="n">
+        <v>0</v>
+      </c>
+      <c r="M994" t="n">
+        <v>0</v>
+      </c>
+      <c r="N994" t="n">
+        <v>36</v>
+      </c>
+      <c r="O994" t="n">
+        <v>0</v>
+      </c>
+      <c r="P994" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q994" t="n">
+        <v>2</v>
+      </c>
+      <c r="R994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B995" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="C995" t="n">
+        <v>25.70000076293945</v>
+      </c>
+      <c r="D995" t="n">
+        <v>24</v>
+      </c>
+      <c r="E995" t="n">
+        <v>24.86000061035156</v>
+      </c>
+      <c r="F995" t="inlineStr"/>
+      <c r="G995" t="n">
+        <v>1519522</v>
+      </c>
+      <c r="H995" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I995" t="n">
+        <v>9</v>
+      </c>
+      <c r="J995" t="n">
+        <v>9</v>
+      </c>
+      <c r="K995" t="n">
+        <v>0</v>
+      </c>
+      <c r="L995" t="n">
+        <v>0</v>
+      </c>
+      <c r="M995" t="n">
+        <v>0</v>
+      </c>
+      <c r="N995" t="n">
+        <v>37</v>
+      </c>
+      <c r="O995" t="n">
+        <v>0</v>
+      </c>
+      <c r="P995" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q995" t="n">
+        <v>0</v>
+      </c>
+      <c r="R995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B996" t="n">
+        <v>24.86000061035156</v>
+      </c>
+      <c r="C996" t="n">
+        <v>25.02000045776367</v>
+      </c>
+      <c r="D996" t="n">
+        <v>23.29999923706055</v>
+      </c>
+      <c r="E996" t="n">
+        <v>23.97999954223633</v>
+      </c>
+      <c r="F996" t="inlineStr"/>
+      <c r="G996" t="n">
+        <v>1307472</v>
+      </c>
+      <c r="H996" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I996" t="n">
+        <v>9</v>
+      </c>
+      <c r="J996" t="n">
+        <v>16</v>
+      </c>
+      <c r="K996" t="n">
+        <v>0</v>
+      </c>
+      <c r="L996" t="n">
+        <v>0</v>
+      </c>
+      <c r="M996" t="n">
+        <v>0</v>
+      </c>
+      <c r="N996" t="n">
+        <v>38</v>
+      </c>
+      <c r="O996" t="n">
+        <v>0</v>
+      </c>
+      <c r="P996" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q996" t="n">
+        <v>0</v>
+      </c>
+      <c r="R996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B997" t="n">
+        <v>24.02000045776367</v>
+      </c>
+      <c r="C997" t="n">
+        <v>25.89999961853027</v>
+      </c>
+      <c r="D997" t="n">
+        <v>23.34000015258789</v>
+      </c>
+      <c r="E997" t="n">
+        <v>24.65999984741211</v>
+      </c>
+      <c r="F997" t="inlineStr"/>
+      <c r="G997" t="n">
+        <v>2405948</v>
+      </c>
+      <c r="H997" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I997" t="n">
+        <v>9</v>
+      </c>
+      <c r="J997" t="n">
+        <v>23</v>
+      </c>
+      <c r="K997" t="n">
+        <v>0</v>
+      </c>
+      <c r="L997" t="n">
+        <v>0</v>
+      </c>
+      <c r="M997" t="n">
+        <v>0</v>
+      </c>
+      <c r="N997" t="n">
+        <v>39</v>
+      </c>
+      <c r="O997" t="n">
+        <v>0</v>
+      </c>
+      <c r="P997" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q997" t="n">
+        <v>0</v>
+      </c>
+      <c r="R997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B998" t="n">
+        <v>24.54999923706055</v>
+      </c>
+      <c r="C998" t="n">
+        <v>28.29999923706055</v>
+      </c>
+      <c r="D998" t="n">
+        <v>24.31999969482422</v>
+      </c>
+      <c r="E998" t="n">
+        <v>24.63999938964844</v>
+      </c>
+      <c r="F998" t="inlineStr"/>
+      <c r="G998" t="n">
+        <v>4111934</v>
+      </c>
+      <c r="H998" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I998" t="n">
+        <v>9</v>
+      </c>
+      <c r="J998" t="n">
+        <v>30</v>
+      </c>
+      <c r="K998" t="n">
+        <v>0</v>
+      </c>
+      <c r="L998" t="n">
+        <v>0</v>
+      </c>
+      <c r="M998" t="n">
+        <v>0</v>
+      </c>
+      <c r="N998" t="n">
+        <v>40</v>
+      </c>
+      <c r="O998" t="n">
+        <v>0</v>
+      </c>
+      <c r="P998" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q998" t="n">
+        <v>0</v>
+      </c>
+      <c r="R998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B999" t="n">
+        <v>24.85000038146973</v>
+      </c>
+      <c r="C999" t="n">
+        <v>25.61000061035156</v>
+      </c>
+      <c r="D999" t="n">
+        <v>23.14999961853027</v>
+      </c>
+      <c r="E999" t="n">
+        <v>25.03000068664551</v>
+      </c>
+      <c r="F999" t="inlineStr"/>
+      <c r="G999" t="n">
+        <v>1361222</v>
+      </c>
+      <c r="H999" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I999" t="n">
+        <v>10</v>
+      </c>
+      <c r="J999" t="n">
+        <v>7</v>
+      </c>
+      <c r="K999" t="n">
+        <v>0</v>
+      </c>
+      <c r="L999" t="n">
+        <v>0</v>
+      </c>
+      <c r="M999" t="n">
+        <v>0</v>
+      </c>
+      <c r="N999" t="n">
+        <v>41</v>
+      </c>
+      <c r="O999" t="n">
+        <v>0</v>
+      </c>
+      <c r="P999" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q999" t="n">
+        <v>0</v>
+      </c>
+      <c r="R999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>24.79999923706055</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>24.30999946594238</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>26.14999961853027</v>
+      </c>
+      <c r="F1000" t="inlineStr"/>
+      <c r="G1000" t="n">
+        <v>8188679</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1000" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1000" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>25.8700008392334</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>26.79999923706055</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>23.20000076293945</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>23.54000091552734</v>
+      </c>
+      <c r="F1001" t="inlineStr"/>
+      <c r="G1001" t="n">
+        <v>1867389</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1001" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1001" t="inlineStr"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>23.96999931335449</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>26.47999954223633</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>23.10000038146973</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>25.15999984741211</v>
+      </c>
+      <c r="F1002" t="inlineStr"/>
+      <c r="G1002" t="n">
+        <v>1441008</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1002" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1002" t="inlineStr"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>25.10000038146973</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>25.22999954223633</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>24.20000076293945</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>24.60000038146973</v>
+      </c>
+      <c r="F1003" t="inlineStr"/>
+      <c r="G1003" t="n">
+        <v>800232</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1003" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1003" t="inlineStr"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>24.60000038146973</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>24.60000038146973</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>22.70999908447266</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>22.97999954223633</v>
+      </c>
+      <c r="F1004" t="inlineStr"/>
+      <c r="G1004" t="n">
+        <v>630083</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1004" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>22.98999977111816</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>23.93000030517578</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>22.15999984741211</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>22.56999969482422</v>
+      </c>
+      <c r="F1005" t="inlineStr"/>
+      <c r="G1005" t="n">
+        <v>646896</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1005" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1005" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>22.64999961853027</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>24.17000007629395</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>22.30999946594238</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>24.01000022888184</v>
+      </c>
+      <c r="F1006" t="inlineStr"/>
+      <c r="G1006" t="n">
+        <v>842662</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1006" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1006" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1006" t="inlineStr"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>24.05999946594238</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>25.32999992370605</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>23.70999908447266</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>24.79999923706055</v>
+      </c>
+      <c r="F1007" t="inlineStr"/>
+      <c r="G1007" t="n">
+        <v>1004364</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1007" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>24.81999969482422</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>25.53000068664551</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>23.89999961853027</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>24.23999977111816</v>
+      </c>
+      <c r="F1008" t="inlineStr"/>
+      <c r="G1008" t="n">
+        <v>1015247</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1008" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>24.06999969482422</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>27</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>22.26000022888184</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>23.18000030517578</v>
+      </c>
+      <c r="F1009" t="inlineStr"/>
+      <c r="G1009" t="n">
+        <v>2119695</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1009" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1009" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>23.20000076293945</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>23.69000053405762</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>22.70000076293945</v>
+      </c>
+      <c r="F1010" t="inlineStr"/>
+      <c r="G1010" t="n">
+        <v>833868</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1010" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>22.60000038146973</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>23.86000061035156</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>22.30999946594238</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>23.57999992370605</v>
+      </c>
+      <c r="F1011" t="inlineStr"/>
+      <c r="G1011" t="n">
+        <v>934419</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1011" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1011" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1011" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1011" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>23.69000053405762</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>21.06999969482422</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>21.20000076293945</v>
+      </c>
+      <c r="F1012" t="inlineStr"/>
+      <c r="G1012" t="n">
+        <v>598942</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1012" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1012" t="inlineStr"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>21.48999977111816</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>23.29999923706055</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>19.70999908447266</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>22.3799991607666</v>
+      </c>
+      <c r="F1013" t="inlineStr"/>
+      <c r="G1013" t="n">
+        <v>1457783</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1013" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>22.3799991607666</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>22.97999954223633</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>20.95999908447266</v>
+      </c>
+      <c r="F1014" t="inlineStr"/>
+      <c r="G1014" t="n">
+        <v>837917</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1014" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1014" t="inlineStr"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>20.95999908447266</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>21.70000076293945</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>19.01000022888184</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>20.89999961853027</v>
+      </c>
+      <c r="F1015" t="inlineStr"/>
+      <c r="G1015" t="n">
+        <v>721020</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1015" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1015" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>20.29999923706055</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>20.20000076293945</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>20.69000053405762</v>
+      </c>
+      <c r="F1016" t="inlineStr"/>
+      <c r="G1016" t="n">
+        <v>2171576</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1016" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1016" t="inlineStr"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>20.54999923706055</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>20.96999931335449</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>19.04999923706055</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>19.47999954223633</v>
+      </c>
+      <c r="F1017" t="inlineStr"/>
+      <c r="G1017" t="n">
+        <v>586392</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1017" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1017" t="inlineStr"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>19.29999923706055</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>20.34000015258789</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>18.68000030517578</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>19.89999961853027</v>
+      </c>
+      <c r="F1018" t="inlineStr"/>
+      <c r="G1018" t="n">
+        <v>776320</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1018" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>20</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>17.90999984741211</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>18.20000076293945</v>
+      </c>
+      <c r="F1019" t="inlineStr"/>
+      <c r="G1019" t="n">
+        <v>536578</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1019" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1019" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/HTMEDIA.NS.xlsx
+++ b/stock_historical_data/1wk/HTMEDIA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1019"/>
+  <dimension ref="A1:R1028"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
@@ -55627,7 +55627,9 @@
       <c r="Q985" t="n">
         <v>0</v>
       </c>
-      <c r="R985" t="inlineStr"/>
+      <c r="R985" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="986">
       <c r="A986" s="2" t="n">
@@ -55679,7 +55681,9 @@
       <c r="Q986" t="n">
         <v>0</v>
       </c>
-      <c r="R986" t="inlineStr"/>
+      <c r="R986" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="987">
       <c r="A987" s="2" t="n">
@@ -55731,7 +55735,9 @@
       <c r="Q987" t="n">
         <v>1</v>
       </c>
-      <c r="R987" t="inlineStr"/>
+      <c r="R987" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="988">
       <c r="A988" s="2" t="n">
@@ -55783,7 +55789,9 @@
       <c r="Q988" t="n">
         <v>0</v>
       </c>
-      <c r="R988" t="inlineStr"/>
+      <c r="R988" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="989">
       <c r="A989" s="2" t="n">
@@ -55835,7 +55843,9 @@
       <c r="Q989" t="n">
         <v>0</v>
       </c>
-      <c r="R989" t="inlineStr"/>
+      <c r="R989" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="990">
       <c r="A990" s="2" t="n">
@@ -55887,7 +55897,9 @@
       <c r="Q990" t="n">
         <v>0</v>
       </c>
-      <c r="R990" t="inlineStr"/>
+      <c r="R990" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="991">
       <c r="A991" s="2" t="n">
@@ -55939,7 +55951,9 @@
       <c r="Q991" t="n">
         <v>0</v>
       </c>
-      <c r="R991" t="inlineStr"/>
+      <c r="R991" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="992">
       <c r="A992" s="2" t="n">
@@ -55991,7 +56005,9 @@
       <c r="Q992" t="n">
         <v>0</v>
       </c>
-      <c r="R992" t="inlineStr"/>
+      <c r="R992" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="993">
       <c r="A993" s="2" t="n">
@@ -56043,7 +56059,9 @@
       <c r="Q993" t="n">
         <v>0</v>
       </c>
-      <c r="R993" t="inlineStr"/>
+      <c r="R993" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="994">
       <c r="A994" s="2" t="n">
@@ -56095,7 +56113,9 @@
       <c r="Q994" t="n">
         <v>2</v>
       </c>
-      <c r="R994" t="inlineStr"/>
+      <c r="R994" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="995">
       <c r="A995" s="2" t="n">
@@ -56147,7 +56167,9 @@
       <c r="Q995" t="n">
         <v>0</v>
       </c>
-      <c r="R995" t="inlineStr"/>
+      <c r="R995" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="996">
       <c r="A996" s="2" t="n">
@@ -56199,7 +56221,9 @@
       <c r="Q996" t="n">
         <v>0</v>
       </c>
-      <c r="R996" t="inlineStr"/>
+      <c r="R996" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="997">
       <c r="A997" s="2" t="n">
@@ -56251,7 +56275,9 @@
       <c r="Q997" t="n">
         <v>0</v>
       </c>
-      <c r="R997" t="inlineStr"/>
+      <c r="R997" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="998">
       <c r="A998" s="2" t="n">
@@ -56303,7 +56329,9 @@
       <c r="Q998" t="n">
         <v>0</v>
       </c>
-      <c r="R998" t="inlineStr"/>
+      <c r="R998" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="999">
       <c r="A999" s="2" t="n">
@@ -56355,7 +56383,9 @@
       <c r="Q999" t="n">
         <v>0</v>
       </c>
-      <c r="R999" t="inlineStr"/>
+      <c r="R999" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1000">
       <c r="A1000" s="2" t="n">
@@ -56407,7 +56437,9 @@
       <c r="Q1000" t="n">
         <v>0</v>
       </c>
-      <c r="R1000" t="inlineStr"/>
+      <c r="R1000" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1001">
       <c r="A1001" s="2" t="n">
@@ -56459,7 +56491,9 @@
       <c r="Q1001" t="n">
         <v>0</v>
       </c>
-      <c r="R1001" t="inlineStr"/>
+      <c r="R1001" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1002">
       <c r="A1002" s="2" t="n">
@@ -56511,7 +56545,9 @@
       <c r="Q1002" t="n">
         <v>0</v>
       </c>
-      <c r="R1002" t="inlineStr"/>
+      <c r="R1002" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1003">
       <c r="A1003" s="2" t="n">
@@ -56563,7 +56599,9 @@
       <c r="Q1003" t="n">
         <v>0</v>
       </c>
-      <c r="R1003" t="inlineStr"/>
+      <c r="R1003" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1004">
       <c r="A1004" s="2" t="n">
@@ -56615,7 +56653,9 @@
       <c r="Q1004" t="n">
         <v>0</v>
       </c>
-      <c r="R1004" t="inlineStr"/>
+      <c r="R1004" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1005">
       <c r="A1005" s="2" t="n">
@@ -56667,7 +56707,9 @@
       <c r="Q1005" t="n">
         <v>0</v>
       </c>
-      <c r="R1005" t="inlineStr"/>
+      <c r="R1005" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1006">
       <c r="A1006" s="2" t="n">
@@ -56719,7 +56761,9 @@
       <c r="Q1006" t="n">
         <v>2</v>
       </c>
-      <c r="R1006" t="inlineStr"/>
+      <c r="R1006" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1007">
       <c r="A1007" s="2" t="n">
@@ -56771,7 +56815,9 @@
       <c r="Q1007" t="n">
         <v>0</v>
       </c>
-      <c r="R1007" t="inlineStr"/>
+      <c r="R1007" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1008">
       <c r="A1008" s="2" t="n">
@@ -56823,7 +56869,9 @@
       <c r="Q1008" t="n">
         <v>0</v>
       </c>
-      <c r="R1008" t="inlineStr"/>
+      <c r="R1008" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1009">
       <c r="A1009" s="2" t="n">
@@ -56875,7 +56923,9 @@
       <c r="Q1009" t="n">
         <v>0</v>
       </c>
-      <c r="R1009" t="inlineStr"/>
+      <c r="R1009" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1010">
       <c r="A1010" s="2" t="n">
@@ -56927,7 +56977,9 @@
       <c r="Q1010" t="n">
         <v>0</v>
       </c>
-      <c r="R1010" t="inlineStr"/>
+      <c r="R1010" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1011">
       <c r="A1011" s="2" t="n">
@@ -56979,7 +57031,9 @@
       <c r="Q1011" t="n">
         <v>1</v>
       </c>
-      <c r="R1011" t="inlineStr"/>
+      <c r="R1011" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1012">
       <c r="A1012" s="2" t="n">
@@ -57031,7 +57085,9 @@
       <c r="Q1012" t="n">
         <v>0</v>
       </c>
-      <c r="R1012" t="inlineStr"/>
+      <c r="R1012" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1013">
       <c r="A1013" s="2" t="n">
@@ -57083,7 +57139,9 @@
       <c r="Q1013" t="n">
         <v>0</v>
       </c>
-      <c r="R1013" t="inlineStr"/>
+      <c r="R1013" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1014">
       <c r="A1014" s="2" t="n">
@@ -57135,7 +57193,9 @@
       <c r="Q1014" t="n">
         <v>0</v>
       </c>
-      <c r="R1014" t="inlineStr"/>
+      <c r="R1014" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1015">
       <c r="A1015" s="2" t="n">
@@ -57187,7 +57247,9 @@
       <c r="Q1015" t="n">
         <v>2</v>
       </c>
-      <c r="R1015" t="inlineStr"/>
+      <c r="R1015" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1016">
       <c r="A1016" s="2" t="n">
@@ -57231,7 +57293,7 @@
         <v>6</v>
       </c>
       <c r="O1016" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1016" t="n">
         <v>0</v>
@@ -57239,7 +57301,9 @@
       <c r="Q1016" t="n">
         <v>0</v>
       </c>
-      <c r="R1016" t="inlineStr"/>
+      <c r="R1016" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1017">
       <c r="A1017" s="2" t="n">
@@ -57291,7 +57355,9 @@
       <c r="Q1017" t="n">
         <v>0</v>
       </c>
-      <c r="R1017" t="inlineStr"/>
+      <c r="R1017" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1018">
       <c r="A1018" s="2" t="n">
@@ -57343,7 +57409,9 @@
       <c r="Q1018" t="n">
         <v>0</v>
       </c>
-      <c r="R1018" t="inlineStr"/>
+      <c r="R1018" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1019">
       <c r="A1019" s="2" t="n">
@@ -57395,7 +57463,477 @@
       <c r="Q1019" t="n">
         <v>0</v>
       </c>
-      <c r="R1019" t="inlineStr"/>
+      <c r="R1019" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>18.20000076293945</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>19.35000038146973</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>16.92000007629395</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>18.95000076293945</v>
+      </c>
+      <c r="F1020" t="inlineStr"/>
+      <c r="G1020" t="n">
+        <v>967042</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1020" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>19.10000038146973</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>17.29999923706055</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>18.09000015258789</v>
+      </c>
+      <c r="F1021" t="inlineStr"/>
+      <c r="G1021" t="n">
+        <v>1121938</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1021" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>19.02000045776367</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>17.77000045776367</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>18.76000022888184</v>
+      </c>
+      <c r="F1022" t="inlineStr"/>
+      <c r="G1022" t="n">
+        <v>1714951</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1022" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1022" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>16.22999954223633</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>16.43000030517578</v>
+      </c>
+      <c r="F1023" t="inlineStr"/>
+      <c r="G1023" t="n">
+        <v>3416632</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1023" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>16.43000030517578</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>16.43000030517578</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>17</v>
+      </c>
+      <c r="F1024" t="inlineStr"/>
+      <c r="G1024" t="n">
+        <v>472430</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1024" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>16.26000022888184</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>16.77000045776367</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>15.30000019073486</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>15.86999988555908</v>
+      </c>
+      <c r="F1025" t="inlineStr"/>
+      <c r="G1025" t="n">
+        <v>1007319</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1025" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>16.04999923706055</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>16.84000015258789</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>16.04999923706055</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>16.71999931335449</v>
+      </c>
+      <c r="F1026" t="inlineStr"/>
+      <c r="G1026" t="n">
+        <v>733322</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1026" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>16.71999931335449</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>17.89999961853027</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>16.57999992370605</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>16.92000007629395</v>
+      </c>
+      <c r="F1027" t="inlineStr"/>
+      <c r="G1027" t="n">
+        <v>1132867</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1027" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>16.95999908447266</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>17.19000053405762</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>16.60000038146973</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>16.61000061035156</v>
+      </c>
+      <c r="F1028" t="inlineStr"/>
+      <c r="G1028" t="n">
+        <v>209555</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1028" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1028" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
